--- a/biology/Médecine/Découverte_de_la_pénicilline/Découverte_de_la_pénicilline.xlsx
+++ b/biology/Médecine/Découverte_de_la_pénicilline/Découverte_de_la_pénicilline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9couverte_de_la_p%C3%A9nicilline</t>
+          <t>Découverte_de_la_pénicilline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Si Alexander Fleming a été le premier à démontrer que la moisissure Penicillium notatum produisait une substance antibactérienne, et le premier à isoler et à concentrer cette substance qu'il a appelée « pénicilline », il n'est cependant pas celui qui a conduit le développement de la pénicilline, ni le premier à utiliser ses propriétés antibiotiques pour soigner l'être humain contre les maladies infectieuses.
 C'est un cas emblématique de découverte faite par sérendipité quand le hasard et la sagacité se rencontrent inopinément pour porter des fruits imprévus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9couverte_de_la_p%C3%A9nicilline</t>
+          <t>Découverte_de_la_pénicilline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Du penicillium à la pénicilline</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse comparative d'échantillons de plaque dentaire de Néandertaliens par une équipe de l'Université d'Adélaïde suggère que le penicillium, la moisissure à la base de la pénicilline, était déjà employée il y a plus de 40 000 ans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse comparative d'échantillons de plaque dentaire de Néandertaliens par une équipe de l'Université d'Adélaïde suggère que le penicillium, la moisissure à la base de la pénicilline, était déjà employée il y a plus de 40 000 ans.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9couverte_de_la_p%C3%A9nicilline</t>
+          <t>Découverte_de_la_pénicilline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,56 +557,203 @@
           <t>La découverte d'Alexander Fleming</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La découverte accidentelle de la pénicilline en fait un des cas emblématiques de découverte par sérendipité.
-La découverte accidentelle
-Le 3 septembre 1928, le docteur Alexander Fleming, alors âgé de 47 ans, revient de vacances et reprend ses activités dans son laboratoire du Saint-Mary's Hospital à Londres. Il retrouve alors les boîtes de Petri où il faisait pousser des cultures de staphylocoques dans le but d'étudier l'effet antibactérien du lysozyme, une enzyme présente dans les larmes et la salive. Il a la surprise de voir ses boîtes envahies par des colonies cotonneuses de moisissures d'un blanc verdâtre. Elles ont été contaminées par les souches d'un champignon microscopique, Penicillium notatum appartenant à son voisin de paillasse, un jeune mycologue irlandais, Charles J. Latouche, qui travaille sur cette moisissure, entraînant des allergies chez les patients asthmatiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Découverte_de_la_pénicilline</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9couverte_de_la_p%C3%A9nicilline</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>La découverte d'Alexander Fleming</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La découverte accidentelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3 septembre 1928, le docteur Alexander Fleming, alors âgé de 47 ans, revient de vacances et reprend ses activités dans son laboratoire du Saint-Mary's Hospital à Londres. Il retrouve alors les boîtes de Petri où il faisait pousser des cultures de staphylocoques dans le but d'étudier l'effet antibactérien du lysozyme, une enzyme présente dans les larmes et la salive. Il a la surprise de voir ses boîtes envahies par des colonies cotonneuses de moisissures d'un blanc verdâtre. Elles ont été contaminées par les souches d'un champignon microscopique, Penicillium notatum appartenant à son voisin de paillasse, un jeune mycologue irlandais, Charles J. Latouche, qui travaille sur cette moisissure, entraînant des allergies chez les patients asthmatiques.
 Alors qu'il s'apprête à désinfecter ses boîtes contaminées, Fleming s'aperçoit qu'autour des colonies de moisissure il existe dans la gélose une zone circulaire dans laquelle le staphylocoque n'a pas poussé. Il émet l'hypothèse qu'une substance sécrétée par les champignons a diffusé dans la gélose entourant les colonies de moisissures et en est responsable. Il lui donne le nom de « pénicilline ».
-Le développement
-Il publie en 1929 dans le British Journal of Experimental Pathology le premier compte rendu de l'effet de cette substance, pensant que son action est du même type que celle du lysozyme.
-« Au cours du travail avec différents staphylocoques un certain nombre de cultures furent mises de côté et examinées de temps en temps. Lors de l'examen, ces cultures étaient exposées à l'air et ensemencées par différents micro-organismes. On remarqua qu'autour d'une grande colonie de champignons polluants, les colonies de staphylocoques étaient devenues transparentes et sans aucun doute en voie de dissolution[3]. »
-« La pénicilline utilisée en doses massives n’est ni toxique ni irritante … elle peut constituer, par applications ou en injections, un antiseptique efficace contre les microbes[4]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Découverte_de_la_pénicilline</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9couverte_de_la_p%C3%A9nicilline</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>La découverte d'Alexander Fleming</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie en 1929 dans le British Journal of Experimental Pathology le premier compte rendu de l'effet de cette substance, pensant que son action est du même type que celle du lysozyme.
+« Au cours du travail avec différents staphylocoques un certain nombre de cultures furent mises de côté et examinées de temps en temps. Lors de l'examen, ces cultures étaient exposées à l'air et ensemencées par différents micro-organismes. On remarqua qu'autour d'une grande colonie de champignons polluants, les colonies de staphylocoques étaient devenues transparentes et sans aucun doute en voie de dissolution. »
+« La pénicilline utilisée en doses massives n’est ni toxique ni irritante … elle peut constituer, par applications ou en injections, un antiseptique efficace contre les microbes. »
 Craddock et Ridley, ses collaborateurs, tentent d'isoler et de purifier la pénicilline mais en vain ; par suite, Fleming se désintéressera peu à peu des applications thérapeutiques de sa découverte et utilisera surtout les extraits de ce Penicillium pour fabriquer des milieux sélectifs. Cependant il prouve que la pénicilline n'est pas nocive pour l'animal et suggère de l'utiliser comme antiseptique c’est-à-dire un désinfectant appliqué sur la peau, à l'extérieur du corps, mais aussi « en injections ».
 Quelques essais cliniques thérapeutiques sont tout de même effectués mais sans grand succès. La découverte de Fleming intéresse peu de monde. Fleming recherchera d'autres micro-organismes producteurs d'antibiotiques mais ne publiera pas ces travaux.
-Le rôle d'Howard Florey
-Il faut attendre une dizaine d'années avant que la pénicilline ne revienne sur le devant de la scène. C'est en 1939, que Howard Florey, pathologiste australien, Ernst Chain, biochimiste et pathologiste d'origine allemande, et Norman Heatley (en), biologiste anglais, réussirent à purifier la pénicilline G[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Découverte_de_la_pénicilline</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9couverte_de_la_p%C3%A9nicilline</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>La découverte d'Alexander Fleming</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le rôle d'Howard Florey</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut attendre une dizaine d'années avant que la pénicilline ne revienne sur le devant de la scène. C'est en 1939, que Howard Florey, pathologiste australien, Ernst Chain, biochimiste et pathologiste d'origine allemande, et Norman Heatley (en), biologiste anglais, réussirent à purifier la pénicilline G.
 En mai 1943, Florey et son équipe reçoivent assez de pénicilline pour des essais sur des blessés britanniques. Ils se rendent à Alger, où se trouvent les troupes alliées, afin de procéder à des injections.
 En 1945, Fleming, Florey et Chain se partagent le prix Nobel de physiologie ou médecine pour leurs travaux sur la pénicilline et son application thérapeutique.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D%C3%A9couverte_de_la_p%C3%A9nicilline</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Découverte_de_la_pénicilline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/D%C3%A9couverte_de_la_p%C3%A9nicilline</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Autres données</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Expériences au Guatemala
-Entre 1946 et 1948 des expériences — financées par les autorités américaines — furent menées sur 696 personnes au Guatemala : on leur inocula — à leur insu — la syphilis ou la blennorragie pour évaluer les effets de la pénicilline[6].
-La « formule Romansky »
-La pénicilline est très rapidement excrétée. Pour obtenir un effet retard, Monroe J. Romansky proposa en 1944, avec G. E. Rittman, de la présenter sous forme d'une émulsion dans la cire d'abeille et l'huile d'arachide[7]. On cessa de recourir à cette formulation dans les années 1950, avec l'invention des pénicillines d'hémisynthèse[8].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Expériences au Guatemala</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1946 et 1948 des expériences — financées par les autorités américaines — furent menées sur 696 personnes au Guatemala : on leur inocula — à leur insu — la syphilis ou la blennorragie pour évaluer les effets de la pénicilline.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Découverte_de_la_pénicilline</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9couverte_de_la_p%C3%A9nicilline</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Autres données</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La « formule Romansky »</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pénicilline est très rapidement excrétée. Pour obtenir un effet retard, Monroe J. Romansky proposa en 1944, avec G. E. Rittman, de la présenter sous forme d'une émulsion dans la cire d'abeille et l'huile d'arachide. On cessa de recourir à cette formulation dans les années 1950, avec l'invention des pénicillines d'hémisynthèse.
 </t>
         </is>
       </c>
